--- a/template_excel/5失业人员再就业信息明细台账.xlsx
+++ b/template_excel/5失业人员再就业信息明细台账.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GSH\Desktop\SQ\台账\空表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\SQ\Tz_Create\template_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061264AC-C4D7-4028-94D2-F5CEE58549DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C350A71F-A351-40AC-B328-4D664918CAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="240" windowWidth="29040" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1995" yWindow="1380" windowWidth="25455" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -298,7 +298,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -310,8 +310,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -319,6 +319,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -330,9 +333,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -616,7 +616,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -660,7 +660,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="17"/>
@@ -681,7 +681,7 @@
       <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="17"/>
@@ -702,28 +702,28 @@
       <c r="Q3" s="17"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="22" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="27" t="s">
@@ -732,17 +732,17 @@
       <c r="J4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="21" t="s">
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="22" t="s">
         <v>15</v>
       </c>
     </row>
@@ -775,7 +775,7 @@
       </c>
       <c r="Q5" s="26"/>
     </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -804,7 +804,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="25" t="s">
         <v>21</v>
       </c>
       <c r="K7" s="17"/>
@@ -816,7 +816,7 @@
       <c r="Q7" s="17"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="17"/>
@@ -837,7 +837,7 @@
       <c r="Q8" s="17"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="17"/>
@@ -858,7 +858,7 @@
       <c r="Q9" s="17"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="17"/>
@@ -879,7 +879,7 @@
       <c r="Q10" s="17"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="17"/>
@@ -900,7 +900,7 @@
       <c r="Q11" s="17"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="17"/>
@@ -921,7 +921,7 @@
       <c r="Q12" s="17"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="17"/>
@@ -942,7 +942,7 @@
       <c r="Q13" s="17"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="17"/>
@@ -963,7 +963,7 @@
       <c r="Q14" s="17"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="17"/>
